--- a/2 - Static and dynamic warning colours/Systematic Review - Aposematism AND Warning Colouration.xlsx
+++ b/2 - Static and dynamic warning colours/Systematic Review - Aposematism AND Warning Colouration.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mqoutlook-my.sharepoint.com/personal/christopher_irving_mq_edu_au/Documents/Documents/MultiComponentSignals/Static and dynamic warning colours/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mqoutlook-my.sharepoint.com/personal/christopher_irving_mq_edu_au/Documents/Documents/MultiComponentSignals/2 - Static and dynamic warning colours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60F66345-1BD8-426E-849B-34D1BA0B6DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{60F66345-1BD8-426E-849B-34D1BA0B6DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2E3767E-48CC-4CDB-A50F-D44CB2470E33}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Analysis" sheetId="3" r:id="rId2"/>
+    <sheet name="Legend" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$G$314</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$G$1:$G$314</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="772">
   <si>
     <t>Key Words</t>
   </si>
@@ -2305,9 +2306,6 @@
     <t>Defensive strategies against predators in Carabid beetles</t>
   </si>
   <si>
-    <t>Quantification Type definition</t>
-  </si>
-  <si>
     <t>Exclude</t>
   </si>
   <si>
@@ -2335,15 +2333,6 @@
     <t>Artificial Prey</t>
   </si>
   <si>
-    <t>Definitions</t>
-  </si>
-  <si>
-    <t>Recognition</t>
-  </si>
-  <si>
-    <t>Choice between 2 dead prey items</t>
-  </si>
-  <si>
     <t>Live interaction</t>
   </si>
   <si>
@@ -2362,13 +2351,13 @@
     <t>Unsure %</t>
   </si>
   <si>
-    <t>No. of Live interaction</t>
-  </si>
-  <si>
-    <t>Live interaction % of dynamic</t>
-  </si>
-  <si>
     <t>Aggregated prey</t>
+  </si>
+  <si>
+    <t>Quantification Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hue </t>
   </si>
 </sst>
 </file>
@@ -2689,10 +2678,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S314"/>
+  <dimension ref="A1:L314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:T2"/>
+    <sheetView topLeftCell="A258" zoomScale="96" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2704,7 +2693,7 @@
     <col min="9" max="9" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2732,38 +2721,8 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>772</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2785,42 +2744,8 @@
       <c r="I2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J2">
-        <v>313</v>
-      </c>
-      <c r="K2">
-        <v>193</v>
-      </c>
-      <c r="L2">
-        <v>33</v>
-      </c>
-      <c r="M2">
-        <v>151</v>
-      </c>
-      <c r="N2">
-        <v>11</v>
-      </c>
-      <c r="O2">
-        <f>(L2/K2)*100</f>
-        <v>17.098445595854923</v>
-      </c>
-      <c r="P2">
-        <f>(M2/K2)*100</f>
-        <v>78.238341968911911</v>
-      </c>
-      <c r="Q2">
-        <f>(N2/K2)*100</f>
-        <v>5.6994818652849739</v>
-      </c>
-      <c r="R2">
-        <v>13</v>
-      </c>
-      <c r="S2">
-        <f>(R2/L2)*100</f>
-        <v>39.393939393939391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -2837,13 +2762,13 @@
         <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2866,7 +2791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2889,7 +2814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2912,7 +2837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -2935,7 +2860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -2958,7 +2883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2981,7 +2906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -3004,7 +2929,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3018,7 +2943,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>260</v>
@@ -3027,7 +2952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -3050,7 +2975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -3073,7 +2998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -3096,7 +3021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -3110,7 +3035,7 @@
         <v>22</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>260</v>
@@ -3119,7 +3044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -3133,7 +3058,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>260</v>
@@ -3156,7 +3081,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>260</v>
@@ -3458,7 +3383,7 @@
         <v>29</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>24</v>
@@ -4666,7 +4591,7 @@
         <v>45</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="I88" s="8" t="s">
         <v>24</v>
@@ -4689,7 +4614,7 @@
         <v>45</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="I89" s="8" t="s">
         <v>24</v>
@@ -4712,7 +4637,7 @@
         <v>29</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>24</v>
@@ -4732,10 +4657,10 @@
         <v>22</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="I91" s="8" t="s">
         <v>24</v>
@@ -4758,7 +4683,7 @@
         <v>29</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="I92" s="8" t="s">
         <v>24</v>
@@ -4781,7 +4706,7 @@
         <v>29</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="I93" s="8" t="s">
         <v>24</v>
@@ -4804,7 +4729,7 @@
         <v>29</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="I94" s="8" t="s">
         <v>24</v>
@@ -4827,7 +4752,7 @@
         <v>23</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="I95" s="8" t="s">
         <v>24</v>
@@ -5267,7 +5192,7 @@
         <v>13</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
@@ -5403,7 +5328,7 @@
         <v>340</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>57</v>
@@ -5426,7 +5351,7 @@
         <v>40</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="I126" s="2" t="s">
         <v>57</v>
@@ -5449,7 +5374,7 @@
         <v>40</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="I127" s="2" t="s">
         <v>57</v>
@@ -5472,7 +5397,7 @@
         <v>45</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>57</v>
@@ -5492,10 +5417,10 @@
         <v>22</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="I129" s="2" t="s">
         <v>139</v>
@@ -5518,7 +5443,7 @@
         <v>29</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="I130" s="2" t="s">
         <v>57</v>
@@ -5541,7 +5466,7 @@
         <v>29</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>57</v>
@@ -5564,7 +5489,7 @@
         <v>29</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="I132" s="2" t="s">
         <v>57</v>
@@ -5587,7 +5512,7 @@
         <v>29</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>57</v>
@@ -5610,7 +5535,7 @@
         <v>29</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>57</v>
@@ -5636,7 +5561,7 @@
         <v>29</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>57</v>
@@ -5659,7 +5584,7 @@
         <v>112</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="I136" s="2" t="s">
         <v>57</v>
@@ -5679,10 +5604,10 @@
         <v>22</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>139</v>
@@ -6280,7 +6205,7 @@
         <v>22</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>301</v>
@@ -6372,7 +6297,7 @@
         <v>22</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>317</v>
@@ -6510,7 +6435,7 @@
         <v>22</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>209</v>
@@ -6888,7 +6813,7 @@
         <v>22</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>292</v>
@@ -9084,6 +9009,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6CB0CA-E9A2-4572-8A5B-ADCA4D9803AF}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>313</v>
+      </c>
+      <c r="B2">
+        <v>193</v>
+      </c>
+      <c r="C2">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>151</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <f>(C2/B2)*100</f>
+        <v>17.098445595854923</v>
+      </c>
+      <c r="G2">
+        <f>(D2/B2)*100</f>
+        <v>78.238341968911911</v>
+      </c>
+      <c r="H2">
+        <f>(E2/B2)*100</f>
+        <v>5.6994818652849739</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9091,7 +9088,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9101,79 +9098,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>764</v>
-      </c>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
+      <c r="A2" s="6" t="s">
+        <v>771</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>766</v>
-      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>45</v>
+      <c r="A3" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>767</v>
-      </c>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>29</v>
+      <c r="A4" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>677</v>
+      <c r="A5" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>40</v>
+      <c r="A6" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="8" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>757</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">

--- a/2 - Static and dynamic warning colours/Systematic Review - Aposematism AND Warning Colouration.xlsx
+++ b/2 - Static and dynamic warning colours/Systematic Review - Aposematism AND Warning Colouration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mqoutlook-my.sharepoint.com/personal/christopher_irving_mq_edu_au/Documents/Documents/MultiComponentSignals/2 - Static and dynamic warning colours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{60F66345-1BD8-426E-849B-34D1BA0B6DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2E3767E-48CC-4CDB-A50F-D44CB2470E33}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{60F66345-1BD8-426E-849B-34D1BA0B6DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72B8EFF6-9614-488D-AF3C-9DCAEBB713C1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -2680,8 +2680,8 @@
   </sheetPr>
   <dimension ref="A1:L314"/>
   <sheetViews>
-    <sheetView topLeftCell="A258" zoomScale="96" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:S2"/>
+    <sheetView topLeftCell="G1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9013,7 +9013,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9054,21 +9054,21 @@
         <v>193</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E2">
         <v>11</v>
       </c>
       <c r="F2">
         <f>(C2/B2)*100</f>
-        <v>17.098445595854923</v>
+        <v>16.580310880829018</v>
       </c>
       <c r="G2">
         <f>(D2/B2)*100</f>
-        <v>78.238341968911911</v>
+        <v>77.720207253886002</v>
       </c>
       <c r="H2">
         <f>(E2/B2)*100</f>

--- a/2 - Static and dynamic warning colours/Systematic Review - Aposematism AND Warning Colouration.xlsx
+++ b/2 - Static and dynamic warning colours/Systematic Review - Aposematism AND Warning Colouration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mqoutlook-my.sharepoint.com/personal/christopher_irving_mq_edu_au/Documents/Documents/MultiComponentSignals/2 - Static and dynamic warning colours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{60F66345-1BD8-426E-849B-34D1BA0B6DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72B8EFF6-9614-488D-AF3C-9DCAEBB713C1}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{60F66345-1BD8-426E-849B-34D1BA0B6DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AA9B6EC-DCA2-47A5-90C8-A8EEE6ACF4CD}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1060" yWindow="1060" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -2471,6 +2471,865 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analysis!$C$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Static</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Unsure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$C$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40A0-469F-8B15-ECDC6DC41330}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>377826</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>84483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>73026</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>128933</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24B52E8A-AC8F-41C6-2BE7-CC794732B80E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2680,8 +3539,8 @@
   </sheetPr>
   <dimension ref="A1:L314"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="96" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9012,8 +9871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6CB0CA-E9A2-4572-8A5B-ADCA4D9803AF}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9077,6 +9936,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
